--- a/amazon_worksheet.xlsx
+++ b/amazon_worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songyaoh/Documents/GitHub/songyao21.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FEE53B7-63EF-A740-BED0-091F821652DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE0758A-E8DA-B54E-9F22-80BD826268B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21120" yWindow="500" windowWidth="27240" windowHeight="15520" xr2:uid="{16C14466-58CC-CC4C-819E-0D4762706737}"/>
+    <workbookView xWindow="14300" yWindow="3520" windowWidth="27240" windowHeight="16440" xr2:uid="{16C14466-58CC-CC4C-819E-0D4762706737}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>Monday</t>
   </si>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB60164B-C599-7F42-98A8-5D4C6D95A097}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,12 +473,18 @@
       <c r="E3">
         <v>1</v>
       </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>0.41666666666666702</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
     </row>
@@ -556,7 +562,7 @@
       </c>
       <c r="G13">
         <f t="shared" ref="G13" si="2">SUM(G2:G12)</f>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H13">
         <f t="shared" ref="H13" si="3">SUM(H2:H12)</f>
@@ -568,7 +574,309 @@
       </c>
       <c r="J13">
         <f>SUM(C13:I13)</f>
-        <v>6.75</v>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>45551</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="C21">
+        <v>0.5</v>
+      </c>
+      <c r="D21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B22" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="2">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="2">
+        <v>0.70833333333333304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B26" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <f>SUM(C16:C26)</f>
+        <v>1.5</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27" si="5">SUM(D16:D26)</f>
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27" si="6">SUM(E16:E26)</f>
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27" si="7">SUM(F16:F26)</f>
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27" si="8">SUM(G16:G26)</f>
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27" si="9">SUM(H16:H26)</f>
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27" si="10">SUM(I16:I26)</f>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f>SUM(C27:I27)</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>45558</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="2">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="2">
+        <v>0.70833333333333304</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <f>SUM(C30:C40)</f>
+        <v>1.5</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41" si="11">SUM(D30:D40)</f>
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41" si="12">SUM(E30:E40)</f>
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ref="F41" si="13">SUM(F30:F40)</f>
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ref="G41" si="14">SUM(G30:G40)</f>
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ref="H41" si="15">SUM(H30:H40)</f>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" ref="I41" si="16">SUM(I30:I40)</f>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f>SUM(C41:I41)</f>
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>

--- a/amazon_worksheet.xlsx
+++ b/amazon_worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songyaoh/Documents/GitHub/songyao21.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE0758A-E8DA-B54E-9F22-80BD826268B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05491789-3AFC-5245-A953-D817E74AC406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14300" yWindow="3520" windowWidth="27240" windowHeight="16440" xr2:uid="{16C14466-58CC-CC4C-819E-0D4762706737}"/>
+    <workbookView xWindow="2280" yWindow="1580" windowWidth="27240" windowHeight="16440" xr2:uid="{16C14466-58CC-CC4C-819E-0D4762706737}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
   <si>
     <t>Monday</t>
   </si>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB60164B-C599-7F42-98A8-5D4C6D95A097}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -784,7 +784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
         <v>0.45833333333333298</v>
       </c>
@@ -795,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
         <v>0.5</v>
       </c>
@@ -803,17 +803,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
         <v>0.54166666666666696</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
         <v>0.58333333333333304</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
         <v>0.625</v>
       </c>
@@ -824,7 +824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
         <v>0.66666666666666696</v>
       </c>
@@ -832,12 +832,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" s="2">
         <v>0.70833333333333304</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" s="2">
         <v>0.75</v>
       </c>
@@ -845,7 +845,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C41">
         <f>SUM(C30:C40)</f>
         <v>1.5</v>
@@ -877,6 +877,127 @@
       <c r="J41">
         <f>SUM(C41:I41)</f>
         <v>8.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B49" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B52" s="2">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B53" s="2">
+        <v>0.70833333333333304</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B54" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <f>SUM(C44:C54)</f>
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ref="D55" si="17">SUM(D44:D54)</f>
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ref="E55" si="18">SUM(E44:E54)</f>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ref="F55" si="19">SUM(F44:F54)</f>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f t="shared" ref="G55" si="20">SUM(G44:G54)</f>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f t="shared" ref="H55" si="21">SUM(H44:H54)</f>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f t="shared" ref="I55" si="22">SUM(I44:I54)</f>
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <f>SUM(C55:I55)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/amazon_worksheet.xlsx
+++ b/amazon_worksheet.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songyaoh/Documents/GitHub/songyao21.github.io/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songyao/Dropbox/Duke/Research/songyao21.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05491789-3AFC-5245-A953-D817E74AC406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97352E80-957A-1344-9D16-3C0F7693B7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1580" windowWidth="27240" windowHeight="16440" xr2:uid="{16C14466-58CC-CC4C-819E-0D4762706737}"/>
+    <workbookView xWindow="36000" yWindow="3860" windowWidth="27240" windowHeight="16440" xr2:uid="{16C14466-58CC-CC4C-819E-0D4762706737}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -122,9 +123,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -162,7 +163,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -268,7 +269,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -410,7 +411,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -421,7 +422,7 @@
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -925,6 +926,9 @@
       <c r="B46" s="2">
         <v>0.41666666666666702</v>
       </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B47" s="2">
@@ -940,11 +944,17 @@
       <c r="B49" s="2">
         <v>0.54166666666666696</v>
       </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" s="2">
         <v>0.58333333333333304</v>
       </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="2">
@@ -969,11 +979,11 @@
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C55">
         <f>SUM(C44:C54)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55">
         <f t="shared" ref="D55" si="17">SUM(D44:D54)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E55">
         <f t="shared" ref="E55" si="18">SUM(E44:E54)</f>
@@ -997,7 +1007,7 @@
       </c>
       <c r="J55">
         <f>SUM(C55:I55)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/amazon_worksheet.xlsx
+++ b/amazon_worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songyao/Dropbox/Duke/Research/songyao21.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97352E80-957A-1344-9D16-3C0F7693B7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A2994E-AD02-F24F-B8DD-DDC3722BA943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="3860" windowWidth="27240" windowHeight="16440" xr2:uid="{16C14466-58CC-CC4C-819E-0D4762706737}"/>
+    <workbookView xWindow="-27960" yWindow="1580" windowWidth="27240" windowHeight="16440" xr2:uid="{16C14466-58CC-CC4C-819E-0D4762706737}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -916,6 +916,9 @@
       <c r="C44">
         <v>1</v>
       </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B45" s="2">
@@ -927,6 +930,9 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
         <v>1</v>
       </c>
     </row>
@@ -987,7 +993,7 @@
       </c>
       <c r="E55">
         <f t="shared" ref="E55" si="18">SUM(E44:E54)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F55">
         <f t="shared" ref="F55" si="19">SUM(F44:F54)</f>
@@ -1007,7 +1013,7 @@
       </c>
       <c r="J55">
         <f>SUM(C55:I55)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/amazon_worksheet.xlsx
+++ b/amazon_worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songyao/Dropbox/Duke/Research/songyao21.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A2994E-AD02-F24F-B8DD-DDC3722BA943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3552B20E-7A1F-0746-B797-8FCAD879775A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27960" yWindow="1580" windowWidth="27240" windowHeight="16440" xr2:uid="{16C14466-58CC-CC4C-819E-0D4762706737}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20000" xr2:uid="{16C14466-58CC-CC4C-819E-0D4762706737}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB60164B-C599-7F42-98A8-5D4C6D95A097}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -924,6 +924,9 @@
       <c r="B45" s="2">
         <v>0.375</v>
       </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B46" s="2">
@@ -945,6 +948,9 @@
       <c r="B48" s="2">
         <v>0.5</v>
       </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="2">
@@ -970,6 +976,9 @@
     <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" s="2">
         <v>0.66666666666666696</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
@@ -997,7 +1006,7 @@
       </c>
       <c r="F55">
         <f t="shared" ref="F55" si="19">SUM(F44:F54)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G55">
         <f t="shared" ref="G55" si="20">SUM(G44:G54)</f>
@@ -1013,7 +1022,7 @@
       </c>
       <c r="J55">
         <f>SUM(C55:I55)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/amazon_worksheet.xlsx
+++ b/amazon_worksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songyao/Dropbox/Duke/Research/songyao21.github.io/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songyaoh/Documents/GitHub/songyao21.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3552B20E-7A1F-0746-B797-8FCAD879775A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E47923E-0604-E542-BE87-278F8B3B5EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20000" xr2:uid="{16C14466-58CC-CC4C-819E-0D4762706737}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="8">
   <si>
     <t>Monday</t>
   </si>
@@ -123,9 +122,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,7 +162,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -269,7 +268,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -411,7 +410,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -419,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB60164B-C599-7F42-98A8-5D4C6D95A097}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="N69" sqref="N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -952,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B49" s="2">
         <v>0.54166666666666696</v>
       </c>
@@ -960,7 +959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B50" s="2">
         <v>0.58333333333333304</v>
       </c>
@@ -968,12 +967,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B51" s="2">
         <v>0.625</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B52" s="2">
         <v>0.66666666666666696</v>
       </c>
@@ -981,17 +980,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B53" s="2">
         <v>0.70833333333333304</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B54" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C55">
         <f>SUM(C44:C54)</f>
         <v>2</v>
@@ -1023,6 +1022,130 @@
       <c r="J55">
         <f>SUM(C55:I55)</f>
         <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>45572</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B59" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B62" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B63" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B64" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B65" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B66" s="2">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B67" s="2">
+        <v>0.70833333333333304</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B68" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C69">
+        <f>SUM(C58:C68)</f>
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ref="D69:I69" si="23">SUM(D58:D68)</f>
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <f>SUM(C69:I69)</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/amazon_worksheet.xlsx
+++ b/amazon_worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songyaoh/Documents/GitHub/songyao21.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E47923E-0604-E542-BE87-278F8B3B5EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF2830A-01D7-CC43-8B17-189C199DC13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20000" xr2:uid="{16C14466-58CC-CC4C-819E-0D4762706737}"/>
+    <workbookView xWindow="12400" yWindow="500" windowWidth="30240" windowHeight="17740" xr2:uid="{16C14466-58CC-CC4C-819E-0D4762706737}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="8">
   <si>
     <t>Monday</t>
   </si>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB60164B-C599-7F42-98A8-5D4C6D95A097}">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="N69" sqref="N69"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1063,6 +1063,9 @@
       <c r="D58">
         <v>1</v>
       </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B59" s="2">
@@ -1078,11 +1081,17 @@
       <c r="B61" s="2">
         <v>0.45833333333333298</v>
       </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B62" s="2">
         <v>0.5</v>
       </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B63" s="2">
@@ -1094,27 +1103,36 @@
         <v>0.58333333333333304</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B65" s="2">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B66" s="2">
         <v>0.66666666666666696</v>
       </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B67" s="2">
         <v>0.70833333333333304</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B68" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C69">
         <f>SUM(C58:C68)</f>
         <v>1</v>
@@ -1129,11 +1147,11 @@
       </c>
       <c r="F69">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G69">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H69">
         <f t="shared" si="23"/>
@@ -1145,7 +1163,261 @@
       </c>
       <c r="J69">
         <f>SUM(C69:I69)</f>
-        <v>2</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" t="s">
+        <v>4</v>
+      </c>
+      <c r="H71" t="s">
+        <v>5</v>
+      </c>
+      <c r="I71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>45579</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B73" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B74" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B75" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B76" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B77" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B78" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B79" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B80" s="2">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B81" s="2">
+        <v>0.70833333333333304</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B82" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C83">
+        <f>SUM(C72:C82)</f>
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ref="D83:I83" si="24">SUM(D72:D82)</f>
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <f>SUM(C83:I83)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2</v>
+      </c>
+      <c r="F85" t="s">
+        <v>3</v>
+      </c>
+      <c r="G85" t="s">
+        <v>4</v>
+      </c>
+      <c r="H85" t="s">
+        <v>5</v>
+      </c>
+      <c r="I85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>45586</v>
+      </c>
+      <c r="B86" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B87" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B88" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B89" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B90" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B91" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B92" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B93" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B94" s="2">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B95" s="2">
+        <v>0.70833333333333304</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B96" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C97">
+        <f>SUM(C86:C96)</f>
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ref="D97:I97" si="25">SUM(D86:D96)</f>
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <f>SUM(C97:I97)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/amazon_worksheet.xlsx
+++ b/amazon_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songyaoh/Documents/GitHub/songyao21.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF2830A-01D7-CC43-8B17-189C199DC13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90D4519-E143-5245-9B80-2E67465E4184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12400" yWindow="500" windowWidth="30240" windowHeight="17740" xr2:uid="{16C14466-58CC-CC4C-819E-0D4762706737}"/>
   </bookViews>
@@ -420,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB60164B-C599-7F42-98A8-5D4C6D95A097}">
   <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J88" sqref="J88"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="K90" sqref="K90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1335,11 +1335,17 @@
       <c r="B86" s="2">
         <v>0.33333333333333331</v>
       </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B87" s="2">
         <v>0.375</v>
       </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B88" s="2">
@@ -1385,11 +1391,14 @@
       <c r="B96" s="2">
         <v>0.75</v>
       </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C97">
         <f>SUM(C86:C96)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D97">
         <f t="shared" ref="D97:I97" si="25">SUM(D86:D96)</f>
@@ -1417,7 +1426,7 @@
       </c>
       <c r="J97">
         <f>SUM(C97:I97)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/amazon_worksheet.xlsx
+++ b/amazon_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songyaoh/Documents/GitHub/songyao21.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90D4519-E143-5245-9B80-2E67465E4184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3383961-CF5E-8446-AB0E-4DA2F6EA0F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12400" yWindow="500" windowWidth="30240" windowHeight="17740" xr2:uid="{16C14466-58CC-CC4C-819E-0D4762706737}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="K90" sqref="K90"/>
+      <selection activeCell="N96" sqref="N96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1356,6 +1356,9 @@
       <c r="B89" s="2">
         <v>0.45833333333333298</v>
       </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B90" s="2">
@@ -1375,6 +1378,9 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B93" s="2">
         <v>0.625</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
@@ -1402,7 +1408,7 @@
       </c>
       <c r="D97">
         <f t="shared" ref="D97:I97" si="25">SUM(D86:D96)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E97">
         <f t="shared" si="25"/>
@@ -1426,7 +1432,7 @@
       </c>
       <c r="J97">
         <f>SUM(C97:I97)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/amazon_worksheet.xlsx
+++ b/amazon_worksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songyaoh/Documents/GitHub/songyao21.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3383961-CF5E-8446-AB0E-4DA2F6EA0F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8BA92B-9996-8744-9DE4-9FDD69673974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12400" yWindow="500" windowWidth="30240" windowHeight="17740" xr2:uid="{16C14466-58CC-CC4C-819E-0D4762706737}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="8">
   <si>
     <t>Monday</t>
   </si>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB60164B-C599-7F42-98A8-5D4C6D95A097}">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:J126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="N96" sqref="N96"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="K124" sqref="K124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1346,11 +1346,17 @@
       <c r="C87">
         <v>1</v>
       </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B88" s="2">
         <v>0.41666666666666702</v>
       </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B89" s="2">
@@ -1359,11 +1365,17 @@
       <c r="D89">
         <v>1</v>
       </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B90" s="2">
         <v>0.5</v>
       </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B91" s="2">
@@ -1382,11 +1394,17 @@
       <c r="D93">
         <v>1</v>
       </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B94" s="2">
         <v>0.66666666666666696</v>
       </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B95" s="2">
@@ -1401,7 +1419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C97">
         <f>SUM(C86:C96)</f>
         <v>3</v>
@@ -1412,15 +1430,15 @@
       </c>
       <c r="E97">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G97">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
         <f t="shared" si="25"/>
@@ -1432,7 +1450,264 @@
       </c>
       <c r="J97">
         <f>SUM(C97:I97)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>2</v>
+      </c>
+      <c r="F100" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" t="s">
         <v>5</v>
+      </c>
+      <c r="I100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B102" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B103" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B104" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B105" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B106" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B107" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B108" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B109" s="2">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B110" s="2">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B111" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C112">
+        <f>SUM(C101:C111)</f>
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <f t="shared" ref="D112:I112" si="26">SUM(D101:D111)</f>
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="26"/>
+        <v>3</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <f>SUM(C112:I112)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>2</v>
+      </c>
+      <c r="F114" t="s">
+        <v>3</v>
+      </c>
+      <c r="G114" t="s">
+        <v>4</v>
+      </c>
+      <c r="H114" t="s">
+        <v>5</v>
+      </c>
+      <c r="I114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>45600</v>
+      </c>
+      <c r="B115" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B116" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B117" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B118" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B119" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B120" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B121" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B122" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B123" s="2">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B124" s="2">
+        <v>0.70833333333333304</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B125" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C126">
+        <f>SUM(C115:C125)</f>
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <f t="shared" ref="D126:I126" si="27">SUM(D115:D125)</f>
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <f>SUM(C126:I126)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/amazon_worksheet.xlsx
+++ b/amazon_worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songyaoh/Documents/GitHub/songyao21.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8BA92B-9996-8744-9DE4-9FDD69673974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB52401-5AF6-7640-A5A7-198FBEB46C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="500" windowWidth="30240" windowHeight="17740" xr2:uid="{16C14466-58CC-CC4C-819E-0D4762706737}"/>
+    <workbookView xWindow="7920" yWindow="500" windowWidth="30240" windowHeight="17740" xr2:uid="{16C14466-58CC-CC4C-819E-0D4762706737}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="8">
   <si>
     <t>Monday</t>
   </si>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB60164B-C599-7F42-98A8-5D4C6D95A097}">
-  <dimension ref="A1:J126"/>
+  <dimension ref="A1:J142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="K124" sqref="K124"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="N134" sqref="N134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1645,26 +1645,50 @@
       <c r="B119" s="2">
         <v>0.5</v>
       </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B120" s="2">
         <v>0.54166666666666696</v>
       </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B121" s="2">
         <v>0.58333333333333304</v>
       </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B122" s="2">
         <v>0.625</v>
       </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B123" s="2">
         <v>0.66666666666666696</v>
       </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B124" s="2">
@@ -1687,11 +1711,11 @@
       </c>
       <c r="E126">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F126">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G126">
         <f t="shared" si="27"/>
@@ -1707,7 +1731,134 @@
       </c>
       <c r="J126">
         <f>SUM(C126:I126)</f>
-        <v>0</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>2</v>
+      </c>
+      <c r="F130" t="s">
+        <v>3</v>
+      </c>
+      <c r="G130" t="s">
+        <v>4</v>
+      </c>
+      <c r="H130" t="s">
+        <v>5</v>
+      </c>
+      <c r="I130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>45607</v>
+      </c>
+      <c r="B131" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B132" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B133" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B134" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B135" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B136" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B137" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B138" s="2">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B139" s="2">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B140" s="2">
+        <v>0.70833333333333304</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B141" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C142">
+        <f>SUM(C131:C141)</f>
+        <v>3</v>
+      </c>
+      <c r="D142">
+        <f t="shared" ref="D142:I142" si="28">SUM(D131:D141)</f>
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <f>SUM(C142:I142)</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/amazon_worksheet.xlsx
+++ b/amazon_worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songyaoh/Documents/GitHub/songyao21.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB52401-5AF6-7640-A5A7-198FBEB46C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7C907E-4B2F-6441-96DC-CCBB66F89621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="500" windowWidth="30240" windowHeight="17740" xr2:uid="{16C14466-58CC-CC4C-819E-0D4762706737}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{16C14466-58CC-CC4C-819E-0D4762706737}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="9">
   <si>
     <t>Monday</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Hours</t>
+  </si>
+  <si>
+    <t>DEC average 8-12 hours per week</t>
   </si>
 </sst>
 </file>
@@ -122,9 +125,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -162,7 +165,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -268,7 +271,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -410,7 +413,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -418,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB60164B-C599-7F42-98A8-5D4C6D95A097}">
-  <dimension ref="A1:J142"/>
+  <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="N134" sqref="N134"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1772,16 +1775,25 @@
       <c r="B132" s="2">
         <v>0.375</v>
       </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B133" s="2">
         <v>0.41666666666666702</v>
       </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B134" s="2">
         <v>0.45833333333333298</v>
       </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B135" s="2">
@@ -1790,6 +1802,9 @@
       <c r="C135">
         <v>1</v>
       </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B136" s="2">
@@ -1798,12 +1813,18 @@
       <c r="C136">
         <v>1</v>
       </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B137" s="2">
         <v>0.58333333333333304</v>
       </c>
       <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="H137">
         <v>1</v>
       </c>
     </row>
@@ -1850,7 +1871,7 @@
       </c>
       <c r="H142">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I142">
         <f t="shared" si="28"/>
@@ -1858,7 +1879,157 @@
       </c>
       <c r="J142">
         <f>SUM(C142:I142)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" t="s">
+        <v>0</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1</v>
+      </c>
+      <c r="E145" t="s">
+        <v>2</v>
+      </c>
+      <c r="F145" t="s">
         <v>3</v>
+      </c>
+      <c r="G145" t="s">
+        <v>4</v>
+      </c>
+      <c r="H145" t="s">
+        <v>5</v>
+      </c>
+      <c r="I145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B146" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B147" s="2">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B148" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B149" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B150" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B151" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B152" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B153" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B154" s="2">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B155" s="2">
+        <v>0.70833333333333304</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B156" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C157">
+        <f>SUM(C146:C156)</f>
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <f t="shared" ref="D157:I157" si="29">SUM(D146:D156)</f>
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <f>SUM(E146:E156)</f>
+        <v>2</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="29"/>
+        <v>4</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="29"/>
+        <v>3</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <f>SUM(C157:I157)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/amazon_worksheet.xlsx
+++ b/amazon_worksheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songyaoh/Documents/GitHub/songyao21.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7C907E-4B2F-6441-96DC-CCBB66F89621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DC2B3A-B606-0E46-B80C-8299EC476C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{16C14466-58CC-CC4C-819E-0D4762706737}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="15480" activeTab="1" xr2:uid="{16C14466-58CC-CC4C-819E-0D4762706737}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Q1_2025" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="9">
   <si>
     <t>Monday</t>
   </si>
@@ -61,14 +62,14 @@
     <t>Hours</t>
   </si>
   <si>
-    <t>DEC average 8-12 hours per week</t>
+    <t>DEC and first week of Jan 2025 average 8-12 hours per week</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,6 +79,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -103,10 +111,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB60164B-C599-7F42-98A8-5D4C6D95A097}">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+    <sheetView topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146:B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2036,4 +2048,313 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D46B5C-C43C-BF49-A38F-5EC5F4C5061E}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>45663</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>0.41666666666666702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>0.45833333333333298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>0.54166666666666696</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>0.58333333333333304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>0.70833333333333304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>45670</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4">
+        <v>2</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>